--- a/어쩌다리그_화면설계_관리자페이지.xlsx
+++ b/어쩌다리그_화면설계_관리자페이지.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="관리자페이지" sheetId="1" r:id="rId1"/>
@@ -169,10 +169,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3930,10 +3930,10 @@
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3943,7 +3943,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6267450" y="558800"/>
-          <a:ext cx="2260600" cy="5746750"/>
+          <a:ext cx="2781300" cy="6362700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4206,6 +4206,89 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>7. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>수정</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>참가자 명단</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>신청자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>신청자 연락처</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>건의사항</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 수정 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(-&gt; '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>참가자 명단</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>은 수정 시 부수합 업데이트</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -4667,6 +4750,1359 @@
             <a:t>6</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>882650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="직선 화살표 연결선 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1835150" y="3365500"/>
+          <a:ext cx="412750" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="직사각형 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="241300" y="5511800"/>
+          <a:ext cx="4025900" cy="3517900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="직사각형 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="387350" y="6019800"/>
+          <a:ext cx="1365250" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>참가자 명단</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>908050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="직사각형 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1860550" y="6026150"/>
+          <a:ext cx="2044700" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>김민선</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(2), </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이지연</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(7)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="직사각형 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="5607050"/>
+          <a:ext cx="3028950" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>제 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회 어쩌다리그</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="직사각형 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="387350" y="7245350"/>
+          <a:ext cx="1365250" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>신청자</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>908050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="직사각형 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1860550" y="7251700"/>
+          <a:ext cx="2019300" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>김민선</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(rlaalstjsoo123)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="직사각형 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="387350" y="7562850"/>
+          <a:ext cx="1365250" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>신청자 연락처</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>984250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="직사각형 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1854200" y="7569200"/>
+          <a:ext cx="2019300" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>010-1234-1234</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>908050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="직사각형 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1860550" y="8058150"/>
+          <a:ext cx="2019300" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="직사각형 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="8045450"/>
+          <a:ext cx="1365250" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>건의사항</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="직사각형 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="374650" y="8585200"/>
+          <a:ext cx="1365250" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>신청일자</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>908050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="직사각형 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1860550" y="8572500"/>
+          <a:ext cx="2038350" cy="311150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2021-01-28</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="직사각형 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="6496050"/>
+          <a:ext cx="1365250" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>부수 합</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>920750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="직사각형 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1873250" y="6527800"/>
+          <a:ext cx="2025650" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>부</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>193675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="직선 화살표 연결선 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="3"/>
+          <a:endCxn id="49" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3898900" y="6670675"/>
+          <a:ext cx="1257300" cy="2092325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="평행 사변형 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4794250" y="7308850"/>
+          <a:ext cx="2895600" cy="2908300"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>설명</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>페이지  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>: admin_joinPopup.jsp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>1. join</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>테이블에 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>부수합</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>필드 추가 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(levelSum)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>부수합은 참가자들의 부수를 더한 값</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>단</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>, -3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>부</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>~0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>부는 모두 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>으로 계산한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>즉</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>참가자의 부수가</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> -1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>부와 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>부일 경우 부수합은 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>로 계산</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>!)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="직사각형 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3498850" y="5613400"/>
+          <a:ext cx="419100" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>수정</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>946150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1187450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="십각형 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3835400" y="5549900"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="직사각형 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="6845300"/>
+          <a:ext cx="1352550" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>신청비밀번호</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="직사각형 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="6864350"/>
+          <a:ext cx="2019300" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1234</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6705,7 +8141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
@@ -6745,15 +8181,15 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>44224</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -6776,7 +8212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -6816,15 +8252,15 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>44224</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -6847,8 +8283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6887,15 +8323,15 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>44224</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -6958,15 +8394,15 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>44224</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -7029,15 +8465,15 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>44224</v>
       </c>
       <c r="G2" s="5" t="s">

--- a/어쩌다리그_화면설계_관리자페이지.xlsx
+++ b/어쩌다리그_화면설계_관리자페이지.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="관리자페이지" sheetId="1" r:id="rId1"/>
     <sheet name="모임관리" sheetId="5" r:id="rId2"/>
     <sheet name="모임관리-참가자조회" sheetId="6" r:id="rId3"/>
-    <sheet name="게시물관리" sheetId="4" r:id="rId4"/>
-    <sheet name="회원관리" sheetId="2" r:id="rId5"/>
+    <sheet name="회원관리" sheetId="2" r:id="rId4"/>
+    <sheet name="게시물관리" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -6117,23 +6117,23 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1"/>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="직사각형 36"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="838200"/>
+          <a:off x="0" y="958850"/>
           <a:ext cx="5930900" cy="558800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6174,23 +6174,23 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2"/>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="모서리가 둥근 직사각형 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4032250" y="533400"/>
+          <a:off x="4032250" y="654050"/>
           <a:ext cx="647700" cy="260350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6231,23 +6231,23 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3"/>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="모서리가 둥근 직사각형 38"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="527050"/>
+          <a:off x="4800600" y="647700"/>
           <a:ext cx="958850" cy="260350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6289,22 +6289,22 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="모서리가 둥근 직사각형 39"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="996950" y="1517650"/>
+          <a:off x="996950" y="1638300"/>
           <a:ext cx="4933950" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6386,24 +6386,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="직사각형 5"/>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="직사각형 40"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="1847850"/>
-          <a:ext cx="939800" cy="3746500"/>
+          <a:off x="57150" y="1968500"/>
+          <a:ext cx="939800" cy="3054350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6447,6 +6447,3136 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>사이드바</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>뭐넣지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>..)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="직사각형 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="2019300"/>
+          <a:ext cx="1517650" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>회원 관리 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>회원조회</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="직사각형 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="2292350"/>
+          <a:ext cx="4845050" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="직사각형 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1136650" y="2667000"/>
+          <a:ext cx="2101850" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1"/>
+            <a:t>이름순 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1"/>
+            <a:t>아이디순 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1"/>
+            <a:t>가입일자순 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1"/>
+            <a:t>랭킹순</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="직사각형 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="2927350"/>
+          <a:ext cx="4933950" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>체크박스 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>상태 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>아이디 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>이름 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>성별 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>부수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>랭킹 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>가입일자 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>최근로그인</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="직사각형 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1117600" y="3327400"/>
+          <a:ext cx="4965700" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>ㅁ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>등록 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rlaalstjsoo123</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>김민선 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>여 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>| 2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>부</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> | 5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>위 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>| 2021-01-25 | 2021-01-28</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="직사각형 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1111250" y="3702050"/>
+          <a:ext cx="4965700" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>ㅁ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>삭제 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>klyljy95</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>이지연 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>여 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>| 7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>부 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>| 2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>위 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>| 2021-01-01 | 2021-01-19</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="직사각형 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1111250" y="4057650"/>
+          <a:ext cx="4965700" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="직사각형 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2235200" y="4775200"/>
+          <a:ext cx="2749550" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt; 1 2 3 4 5 &gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="직사각형 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5568950" y="2628900"/>
+          <a:ext cx="444500" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>삭제</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="직사각형 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3251200" y="2362200"/>
+          <a:ext cx="2051050" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="600"/>
+            <a:t>검색어 입력</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="직사각형 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="2355850"/>
+          <a:ext cx="717550" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="600"/>
+            <a:t>v </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="600"/>
+            <a:t>옵션</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="직사각형 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5378450" y="2362200"/>
+          <a:ext cx="476250" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="600"/>
+            <a:t>검색</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="직사각형 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6229350" y="863600"/>
+          <a:ext cx="2260600" cy="5314950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>현재 페이지 이름 표시</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>각 페이지 링크 걸어두기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2.  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>검색필드</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>옵션 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이름</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>부수</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>리스트</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- user</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 테이블에서 모든 모임 회원리스트  가져오기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>기본 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>이름 가나다 순</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>. ) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>회원의 아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>파란글씨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>클릭하면 해당 회원의 정보를 확인할 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>. -&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>팝업</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(admin_userPopup.jsp)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>상태가 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>삭제</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>인 회원의 정보는 열람할 수 없음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>삭제 버튼</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>선택한 회원의 기록을 삭제할 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(userAvailable = 0)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>-&gt; db</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>에서 지워버리면 외래키로 참조한 부분에 이상 생김</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1270000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="십각형 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2222500" y="1974850"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1187450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="십각형 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2139950" y="2317750"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="십각형 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1035050" y="3136900"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="십각형 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5340350" y="2622550"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="직사각형 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="939800" y="5397500"/>
+          <a:ext cx="4025900" cy="4387850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="직사각형 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="5905500"/>
+          <a:ext cx="1365250" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>아이디</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="직사각형 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2559050" y="5911850"/>
+          <a:ext cx="2044700" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>rlaalstjsoo123</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="직사각형 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1079500" y="5492750"/>
+          <a:ext cx="3028950" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회원정보</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="직사각형 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1079500" y="6997700"/>
+          <a:ext cx="1365250" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>부수</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="직사각형 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2527300" y="7016750"/>
+          <a:ext cx="2019300" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="직사각형 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="7340600"/>
+          <a:ext cx="1365250" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이메일</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="직사각형 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2520950" y="7366000"/>
+          <a:ext cx="2019300" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>apphia39@naver.com</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="직사각형 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2508250" y="7702550"/>
+          <a:ext cx="2019300" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>ㅎㅇㅎㅇ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="직사각형 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="7689850"/>
+          <a:ext cx="1365250" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>내 소개</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="직사각형 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1073150" y="8191500"/>
+          <a:ext cx="3435350" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>랭킹 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>우승 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>준우승 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> 3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>위</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="직사각형 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="8572500"/>
+          <a:ext cx="3435350" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>위 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>| 0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t> | 0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t> | 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="직사각형 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1092200" y="6267450"/>
+          <a:ext cx="1365250" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이름</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="직사각형 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="6661150"/>
+          <a:ext cx="2025650" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>여자</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="직선 화살표 연결선 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="3"/>
+          <a:endCxn id="79" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4565650" y="6804025"/>
+          <a:ext cx="1289050" cy="1844675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="평행 사변형 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5492750" y="7194550"/>
+          <a:ext cx="2895600" cy="2908300"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>설명</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>페이지  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>: admin_userPopup.jsp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> user table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>에 가입일자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>최근 로그인 날짜 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>상태  필드 추가</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>부수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>이메일</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>소개 수정 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1308100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="직사각형 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4197350" y="5499100"/>
+          <a:ext cx="419100" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>수정</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="십각형 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4533900" y="5435600"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="직사각형 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="6616700"/>
+          <a:ext cx="1352550" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>성별</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="직사각형 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2565400" y="6280150"/>
+          <a:ext cx="2019300" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>김민선</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1193800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="직선 화살표 연결선 83"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2146300" y="3492500"/>
+          <a:ext cx="381000" cy="1949450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="838200"/>
+          <a:ext cx="5930900" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>관리자페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4032250" y="533400"/>
+          <a:ext cx="647700" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>로그아웃</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="527050"/>
+          <a:ext cx="958850" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>사용자페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="996950" y="1517650"/>
+          <a:ext cx="4933950" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회원관리 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> |  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>게시물 관리  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>|  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>모임 관리  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>|  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>콘텐츠 관리  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>|  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>기타관리  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>|  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>통계관리</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="1847850"/>
+          <a:ext cx="939800" cy="3746500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
@@ -6459,7 +9589,7 @@
             <a:t>*</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -6468,7 +9598,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>게시글목록</a:t>
+            <a:t>게시물목록</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
@@ -6578,30 +9708,6 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>게시물 등록</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
@@ -6640,7 +9746,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- </a:t>
+            <a:t>*</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800">
@@ -6652,59 +9758,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>게시물 수정</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>게시물 삭제</a:t>
+            <a:t>결과게시판</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
@@ -6772,7 +9826,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>* </a:t>
+            <a:t>*</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800">
@@ -6784,163 +9838,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>결과게시판</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>게시물 등록</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>게시물 수정</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>게시물 삭제</a:t>
+            <a:t>후기게시판</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
@@ -7008,412 +9906,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>후기게시판</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>게시물 등록</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>게시물 수정</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>게시물 삭제</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>*FAQ</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- FAQ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>등록</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- FAQ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>수정</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- FAQ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>삭제</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -7439,33 +9933,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2"/>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="838200"/>
-          <a:ext cx="5930900" cy="558800"/>
+          <a:off x="1111250" y="1917700"/>
+          <a:ext cx="1517650" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7488,43 +9977,51 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>관리자페이지</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>게시물관리 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>게시물조회</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="직사각형 49"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4032250" y="533400"/>
-          <a:ext cx="647700" cy="260350"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
+          <a:off x="1098550" y="2171700"/>
+          <a:ext cx="4845050" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -7548,40 +10045,406 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="직사각형 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="2241550"/>
+          <a:ext cx="2051050" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="600"/>
+            <a:t>검색어 입력</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="직사각형 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2425700" y="2235200"/>
+          <a:ext cx="717550" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="600"/>
+            <a:t>v </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="600"/>
+            <a:t>옵션</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="직사각형 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5346700" y="2241550"/>
+          <a:ext cx="476250" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="600"/>
+            <a:t>검색</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="십각형 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2108200" y="2197100"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="십각형 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2438400" y="1892300"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="직사각형 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1098550" y="2546350"/>
+          <a:ext cx="2101850" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1"/>
+            <a:t>전체</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>로그아웃</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>850900</xdr:colOff>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>공지 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>결과 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>후기 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>| FAQ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="직사각형 57"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="527050"/>
-          <a:ext cx="958850" cy="260350"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
+          <a:off x="6724650" y="647700"/>
+          <a:ext cx="2260600" cy="5314950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -7605,11 +10468,227 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>사용자페이지</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>현재 페이지 이름 표시</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>각 페이지 링크 걸어두기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2.  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>검색필드</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>옵션 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>게시판종류 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>제목 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>내용</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>리스트</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- bbs, bbs_result, bbs_review, bbs_faq</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 테이블에서 모든 게시물 가져오기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>기본 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>등록일자 순</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> ) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>게시물 제목</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>파란글씨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>클릭하면 해당 게시물의 내용을 확인할 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>. -&gt; (admin_bbsView.jsp)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>삭제 버튼</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>선택한 게시물을 삭제할 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>. (bbsAvailable = 0)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>등록 버튼</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>게시물 등록 가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(admin_bbsWrite.jsp)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7618,27 +10697,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5"/>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="직사각형 58"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="996950" y="1517650"/>
-          <a:ext cx="4933950" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
+          <a:off x="1085850" y="2813050"/>
+          <a:ext cx="4933950" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -7665,47 +10744,47 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>회원관리 </a:t>
+            <a:t>체크박스 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>상태 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>종류 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t> |  </a:t>
+            <a:t>| bbsID | </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>게시물 관리  </a:t>
+            <a:t>제목 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>|  </a:t>
+            <a:t>| </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>모임 관리  </a:t>
+            <a:t>게시자 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>|  </a:t>
+            <a:t>| </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>콘텐츠 관리  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>|  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>기타관리  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>|  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>통계관리</a:t>
+            <a:t>게시일자</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -7715,26 +10794,137 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="직사각형 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="2514600"/>
+          <a:ext cx="444500" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>삭제</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="십각형 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5295900" y="2508250"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="직사각형 6"/>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="직사각형 62"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="1847850"/>
-          <a:ext cx="939800" cy="3054350"/>
+          <a:off x="1047750" y="3238500"/>
+          <a:ext cx="4965700" cy="298450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7742,108 +10932,646 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>ㅁ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>등록</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>공지 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>| 52 | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800">
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>회원등록</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="800">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+            <a:t>모임</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>제 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>회 어쩌다리그 모임 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>| admin | 2021-01-28</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="직사각형 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1041400" y="3613150"/>
+          <a:ext cx="4965700" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>ㅁ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>삭제 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>공지 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>| 51 | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>일반</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>일반공지입니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>| admin | 2021-01-01</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="직사각형 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1060450" y="4387850"/>
+          <a:ext cx="4965700" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="십각형 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1035050" y="3054350"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
-            <a:t>*</a:t>
-          </a:r>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="직사각형 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="3981450"/>
+          <a:ext cx="4965700" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>ㅁ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>등록 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>| FAQ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>부수합 관련 문의드립니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>| admin | 2020-12-21</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="직사각형 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="5181600"/>
+          <a:ext cx="2749550" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt; 1 2 3 4 5 &gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="직사각형 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="5181600"/>
+          <a:ext cx="444500" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>회원목록</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+            <a:t>등록</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="십각형 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5410200" y="5162550"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>회원정보수정</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>탈퇴회원관리</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8212,7 +11940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -8283,8 +12011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8354,8 +12082,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44224</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8421,77 +12220,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>44224</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:H2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/어쩌다리그_화면설계_관리자페이지.xlsx
+++ b/어쩌다리그_화면설계_관리자페이지.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="관리자페이지" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="모임관리-참가자조회" sheetId="6" r:id="rId3"/>
     <sheet name="회원관리" sheetId="2" r:id="rId4"/>
     <sheet name="게시물관리" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -1027,7 +1026,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>완료</a:t>
+            <a:t>일반</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
@@ -1035,7 +1034,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>진행중</a:t>
+            <a:t>삭제</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1120,7 +1119,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>등록자 </a:t>
+            <a:t>작성자 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
@@ -1128,7 +1127,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>등록일자 </a:t>
+            <a:t>작성일자 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
@@ -1204,32 +1203,41 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>진행중 </a:t>
+            <a:t>삭제 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
             <a:t>| </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>제</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>회 어쩌다리그 </a:t>
@@ -1308,32 +1316,41 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
-            <a:t>완료 </a:t>
+            <a:t>일반 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
             <a:t>| </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>제</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>11</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>회 어쩌다리그 </a:t>
@@ -1480,16 +1497,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:colOff>450850</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1498,8 +1515,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5568950" y="2508250"/>
-          <a:ext cx="444500" cy="234950"/>
+          <a:off x="4711700" y="2527300"/>
+          <a:ext cx="647700" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1526,7 +1543,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>삭제</a:t>
+            <a:t>글 삭제</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1879,15 +1896,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1896,12 +1913,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6229350" y="742950"/>
-          <a:ext cx="2260600" cy="5746750"/>
+          <a:off x="6153150" y="488950"/>
+          <a:ext cx="2260600" cy="6883400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1925,242 +1945,951 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>현재 페이지 이름 표시</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>각 페이지 링크 걸어두기</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2.  </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>검색필드</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>옵션 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>제목</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>상태</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>등록자</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>작성자</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>3.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>리스트</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>- join</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> 테이블에서 모든 모임 리스트 가져오기</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- notice</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>테이블에서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>모임공지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>인 모든 모임 리스트 가져오기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>. (bbsID DESC </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>순으로</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- bbsAvailable == 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이면 상태가 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>일반</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>으로 표시</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>, bbsAvailable==0(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>삭제된 게시물</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이면 상태가 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>삭제</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>로 표시</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>- </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>게시물 제목에는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>링크 걸려서 해당 모임의 게시판 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>view</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>페이지로 이동</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(notice_view</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>페이지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>참가자 조회 버튼</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>해당 모임의 참가자조회 페이지로 이동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>5. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>결과 조회 버튼</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>상태가 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>완료</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>인 모임만 결과 조회가 가능</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>해당 모임의 결과조회 페이지로 이동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>6. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>삭제 버튼</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>버튼</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>삭제버튼</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>선택한 모임에 대한 모든 기록을 삭제할 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(bbsAvailable = 0)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>활성화버튼 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>선택한 모임에 대한 모든 기록을 삭제할 수 있음</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>(bbsAvailable = 0)</a:t>
-          </a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>선택한 모임들을 살림 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(bbsAvailable = 1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>글 표시 기준</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>전체</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>를 선택하면 전체 게시물이 보임</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>일반</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>를 선택하면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bbsAvailable == 0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>인 게시물들만 보임</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>존재하는 게시물</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>진행</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>을 선택하면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bbsAvailable == 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>인 게시물들만 보임</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>삭제된 게시물</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2448,16 +3177,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2466,7 +3195,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5340350" y="2501900"/>
+          <a:off x="4508500" y="2514600"/>
           <a:ext cx="241300" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="decagon">
@@ -2495,6 +3224,117 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
             <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="직사각형 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5416550" y="2527300"/>
+          <a:ext cx="615950" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>글 활성화</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="십각형 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1016000" y="2444750"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>7</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
         </a:p>
@@ -11940,8 +12780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -11989,7 +12829,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="3">
-        <v>44224</v>
+        <v>44230</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>6</v>
@@ -12011,8 +12851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12082,7 +12922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -12153,7 +12993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -12218,17 +13058,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/어쩌다리그_화면설계_관리자페이지.xlsx
+++ b/어쩌다리그_화면설계_관리자페이지.xlsx
@@ -1210,6 +1210,30 @@
             <a:t>| </a:t>
           </a:r>
           <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>제</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>회 어쩌다리그</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2">
@@ -1218,29 +1242,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>제</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>12</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>회 어쩌다리그 </a:t>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
@@ -1323,34 +1325,25 @@
             <a:t>| </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>제</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>11</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>회 어쩌다리그 </a:t>
@@ -2307,81 +2300,6 @@
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>게시물 제목에는 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>a</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>링크 걸려서 해당 모임의 게시판 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>view</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>페이지로 이동</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(notice_view</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>페이지</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -12780,7 +12698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>

--- a/어쩌다리그_화면설계_관리자페이지.xlsx
+++ b/어쩌다리그_화면설계_관리자페이지.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="관리자페이지" sheetId="1" r:id="rId1"/>
     <sheet name="모임관리" sheetId="5" r:id="rId2"/>
     <sheet name="모임관리-참가자조회" sheetId="6" r:id="rId3"/>
     <sheet name="회원관리" sheetId="2" r:id="rId4"/>
-    <sheet name="게시물관리" sheetId="4" r:id="rId5"/>
+    <sheet name="게시물 조회" sheetId="4" r:id="rId5"/>
+    <sheet name="faq게시물 관리" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>제목</t>
   </si>
@@ -61,18 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게시물관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> what&gt;관리자페이지&gt;게시물관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">admin_bbs.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> what&gt;관리자페이지&gt;회원관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,6 +87,30 @@
   </si>
   <si>
     <t xml:space="preserve">admin_joinList.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_bbs.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> what&gt;관리자페이지&gt;게시물 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faq 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> what&gt;관리자페이지&gt;faq 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_faq.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,13 +175,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -440,15 +456,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>|  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>기타관리  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>|  </a:t>
+            <a:t>| </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
@@ -711,14 +719,6 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
             <a:t>콘텐츠 관리  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>|  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>기타관리  </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
@@ -1490,61 +1490,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="직사각형 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4711700" y="2527300"/>
-          <a:ext cx="647700" cy="234950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>글 삭제</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -2485,7 +2430,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>6.</a:t>
+            <a:t>7. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
@@ -2493,7 +2438,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>버튼</a:t>
+            <a:t>글 표시 기준</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
             <a:solidFill>
@@ -2504,12 +2449,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>삭제버튼</a:t>
+            <a:t>전체</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
@@ -2517,7 +2470,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> - </a:t>
+            <a:t>'</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
@@ -2525,54 +2478,8 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>선택한 모임에 대한 모든 기록을 삭제할 수 있음</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(bbsAvailable = 0)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>활성화버튼 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>선택한 모임들을 살림 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(bbsAvailable = 1)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+            <a:t>를 선택하면 전체 게시물이 보임</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -2587,7 +2494,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>7. </a:t>
+            <a:t>'</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
@@ -2595,8 +2502,142 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>글 표시 기준</a:t>
-          </a:r>
+            <a:t>일반</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>를 선택하면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bbsAvailable == 0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>인 게시물들만 보임</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>존재하는 게시물</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>진행</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>을 선택하면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bbsAvailable == 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>인 게시물들만 보임</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>삭제된 게시물</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -2605,210 +2646,12 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>전체</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>를 선택하면 전체 게시물이 보임</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>일반</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>를 선택하면 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>bbsAvailable == 0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>인 게시물들만 보임</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>존재하는 게시물</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>진행</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>을 선택하면 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>bbsAvailable == 1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>인 게시물들만 보임</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>삭제된 게시물</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -3088,117 +2931,6 @@
             <a:t>5</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="십각형 34"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4508500" y="2514600"/>
-          <a:ext cx="241300" cy="234950"/>
-        </a:xfrm>
-        <a:prstGeom prst="decagon">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
-            <a:t>6</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="직사각형 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5416550" y="2527300"/>
-          <a:ext cx="615950" cy="234950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>글 활성화</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3511,14 +3243,6 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
             <a:t>콘텐츠 관리  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>|  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>기타관리  </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
@@ -6391,9 +6115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6406,7 +6130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3898900" y="6670675"/>
-          <a:ext cx="1257300" cy="2092325"/>
+          <a:ext cx="1071563" cy="1343025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6442,8 +6166,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6453,7 +6177,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4794250" y="7308850"/>
-          <a:ext cx="2895600" cy="2908300"/>
+          <a:ext cx="2895600" cy="1409700"/>
         </a:xfrm>
         <a:prstGeom prst="parallelogram">
           <a:avLst/>
@@ -6482,21 +6206,6 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-            <a:t>설명</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
             <a:t>- </a:t>
           </a:r>
           <a:r>
@@ -6505,129 +6214,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>: admin_joinPopup.jsp</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>1. join</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-            <a:t>테이블에 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-            <a:t>부수합</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>필드 추가 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>(levelSum)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>부수합은 참가자들의 부수를 더한 값</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>단</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>, -3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>부</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>~0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>부는 모두 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>으로 계산한다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>즉</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>참가자의 부수가</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t> -1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>부와 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>부일 경우 부수합은 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>로 계산</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>!)</a:t>
+            <a:t>: admin_joinDtl.jsp</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7117,14 +6704,6 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
             <a:t>콘텐츠 관리  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>|  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>기타관리  </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
@@ -10254,14 +9833,6 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>기타관리  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>|  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
             <a:t>통계관리</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
@@ -10347,7 +9918,7 @@
             <a:t>*</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -10356,7 +9927,163 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>게시물목록</a:t>
+            <a:t>게시물 관리</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>공지게시물</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>결과게시물</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>후기게시물</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
             <a:solidFill>
@@ -10424,10 +10151,1021 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:t>*FAQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1111250" y="1917700"/>
+          <a:ext cx="1517650" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>게시물관리 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>게시물 조회</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="직사각형 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1098550" y="2171700"/>
+          <a:ext cx="4845050" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="직사각형 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="2241550"/>
+          <a:ext cx="2051050" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="600"/>
+            <a:t>검색어 입력</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="직사각형 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2425700" y="2235200"/>
+          <a:ext cx="717550" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="600"/>
+            <a:t>v </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="600"/>
+            <a:t>옵션</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="직사각형 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5346700" y="2241550"/>
+          <a:ext cx="476250" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="600"/>
+            <a:t>검색</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="십각형 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2108200" y="2197100"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="십각형 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2438400" y="1892300"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="직사각형 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1098550" y="2546350"/>
+          <a:ext cx="1016000" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1"/>
+            <a:t>전체</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>일반</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t> | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>삭제</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="직사각형 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210300" y="539750"/>
+          <a:ext cx="3187700" cy="5029200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>현재 페이지 이름 표시</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>각 페이지 링크 걸어두기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>2.  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>검색필드</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>옵션 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>제목 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>내용</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>리스트</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- bbs_notice </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>테이블에서 모든 게시물 가져오기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>기본 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>-  bbsID </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>순</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>게시물 제목</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>파란글씨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>클릭하면 해당 게시물의 내용을 확인할 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>. -&gt; (notice_view.jsp)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>삭제 버튼 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>&amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>활성화버튼</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>삭제 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>선택한 게시물을 삭제할 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>. (bbsAvailable = 0)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>활성화 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>선택한 게시물을 다시 살릴 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(bbsAvailabe = 1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>등록 버튼</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>공지게시물 등록 가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(notice_write.jsp)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>6. bbsType == '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>모임공지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>인 경우</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>해당 모임에 대한 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>결과</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>와 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>후기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>등록이 가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>이미 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>bbsID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>가 일치하는 결과</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>혹은 후기 게시물이 존재한다면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>결과수정</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(result_update)', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>후기수정</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(review_update)'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>이 뜨고</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>그렇지 않다면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>결과등록</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(result_write)', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>후기등록</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(review_write)'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>버튼이 뜬다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>. </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="직사각형 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="2813050"/>
+          <a:ext cx="4933950" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>체크박스 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> bbsID | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -10436,9 +11174,1637 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>공지게시판</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:t>상태 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>머릿말 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>제목 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>|                              | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>작성자 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>작성일자</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="직사각형 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743450" y="2533650"/>
+          <a:ext cx="615950" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>글 삭제</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="십각형 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4584700" y="2514600"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="직사각형 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="3238500"/>
+          <a:ext cx="4965700" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>ㅁ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>52 | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>일반</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>모임</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>] | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>제 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>회 어쩌다리그 모임 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>|                                            | admin | 2021-01-28</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="직사각형 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1041400" y="3613150"/>
+          <a:ext cx="4965700" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>ㅁ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>51 | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="900" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>삭제</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>일반</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>] | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>일반공지입니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>|                                                            | admin | 2021-01-01</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="직사각형 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1060450" y="4387850"/>
+          <a:ext cx="4965700" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="십각형 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1035050" y="3054350"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="직사각형 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="3981450"/>
+          <a:ext cx="4965700" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>ㅁ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="900" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>일반 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>모임</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>] | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>모임공지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>test</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>|                                                                | admin | 2020-12-21</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="직사각형 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="5181600"/>
+          <a:ext cx="2749550" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt; 1 2 3 4 5 &gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="직사각형 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="5181600"/>
+          <a:ext cx="444500" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>등록</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="십각형 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5410200" y="5162550"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="직사각형 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5397500" y="2527300"/>
+          <a:ext cx="615950" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>글 활성화</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>831850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1327150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="직사각형 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3721100" y="3289300"/>
+          <a:ext cx="495300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="600"/>
+            <a:t>결과등록</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="직사각형 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4273550" y="3289300"/>
+          <a:ext cx="495300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="600"/>
+            <a:t>후기등록</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="직사각형 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714750" y="4038600"/>
+          <a:ext cx="495300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="600"/>
+            <a:t>결과수정</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="십각형 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3613150" y="3105150"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="직사각형 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4273550" y="4025900"/>
+          <a:ext cx="495300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="600"/>
+            <a:t>후기수정</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="838200"/>
+          <a:ext cx="5930900" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>관리자페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4032250" y="533400"/>
+          <a:ext cx="647700" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>로그아웃</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="527050"/>
+          <a:ext cx="958850" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>사용자페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="996950" y="1517650"/>
+          <a:ext cx="4933950" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회원관리 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> |  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>게시물 관리  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>|  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>모임 관리  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>|  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>콘텐츠 관리  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>|  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>통계관리</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="1847850"/>
+          <a:ext cx="939800" cy="3746500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>게시물 관리</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
@@ -10495,167 +12861,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>결과게시판</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>후기게시판</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -10706,7 +12912,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="직사각형 11"/>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10745,11 +12951,11 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
-            <a:t>- </a:t>
+            <a:t>- faq</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>게시물조회</a:t>
+            <a:t> 조회</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10771,7 +12977,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="직사각형 49"/>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10825,7 +13031,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="직사각형 50"/>
+        <xdr:cNvPr id="9" name="직사각형 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10880,7 +13086,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="직사각형 51"/>
+        <xdr:cNvPr id="10" name="직사각형 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10939,7 +13145,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="직사각형 52"/>
+        <xdr:cNvPr id="11" name="직사각형 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10994,7 +13200,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="십각형 53"/>
+        <xdr:cNvPr id="12" name="십각형 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11050,7 +13256,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="십각형 55"/>
+        <xdr:cNvPr id="13" name="십각형 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11106,7 +13312,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="직사각형 56"/>
+        <xdr:cNvPr id="14" name="직사각형 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11151,27 +13357,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>공지 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
-            <a:t>| </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>결과 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
-            <a:t>| </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>후기 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
-            <a:t>| FAQ</a:t>
+            <a:t>일반</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t> | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>삭제</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
         </a:p>
@@ -11181,26 +13375,329 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="직사각형 57"/>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="직사각형 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6724650" y="647700"/>
-          <a:ext cx="2260600" cy="5314950"/>
+          <a:off x="6159500" y="622300"/>
+          <a:ext cx="2825750" cy="5137150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>현재 페이지 이름 표시</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>각 페이지 링크 걸어두기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>2.  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>검색필드</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>옵션 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>제목 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>내용</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>리스트</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- bbs_faq</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>테이블에서 모든 게시물 가져오기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>기본 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>-  bbsID </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>순</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>게시물 제목</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>파란글씨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>클릭하면 해당 게시물의 내용을 확인할 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>. -&gt; (faq_view.jsp)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>삭제 버튼 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>&amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>활성화버튼</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>삭제 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>선택한 게시물을 삭제할 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>. (bbsAvailable = 0)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>활성화 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>선택한 게시물을 다시 살릴 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(bbsAvailabe = 1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>등록 버튼</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- faq</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t> 새로 등록 가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(faq_write.jsp)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="2813050"/>
+          <a:ext cx="4933950" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11226,279 +13723,6 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>1. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>현재 페이지 이름 표시</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>각 페이지 링크 걸어두기</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>2.  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>검색필드</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>옵션 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>게시판종류 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>/ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>제목 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>/ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>내용</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>3.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>리스트</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>- bbs, bbs_result, bbs_review, bbs_faq</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> 테이블에서 모든 게시물 가져오기</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>기본 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>등록일자 순</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t> ) </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>게시물 제목</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>파란글씨</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>) </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>클릭하면 해당 게시물의 내용을 확인할 수 있음</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>. -&gt; (admin_bbsView.jsp)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>4. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>삭제 버튼</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>선택한 게시물을 삭제할 수 있음</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>. (bbsAvailable = 0)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>5. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>등록 버튼</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>게시물 등록 가능</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>(admin_bbsWrite.jsp)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="직사각형 58"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1085850" y="2813050"/>
-          <a:ext cx="4933950" cy="330200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
@@ -11506,27 +13730,47 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> bbsID | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>상태 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>| </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>상태 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>| </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>종류 </a:t>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>제목</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>| bbsID | </a:t>
+            <a:t> | </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>제목 </a:t>
+            <a:t>작성자 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
@@ -11534,15 +13778,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>게시자 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>| </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>게시일자</a:t>
+            <a:t>작성일자</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -11552,80 +13788,80 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="직사각형 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743450" y="2533650"/>
+          <a:ext cx="615950" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>글 삭제</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="직사각형 59"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5524500" y="2514600"/>
-          <a:ext cx="444500" cy="234950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>삭제</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="십각형 61"/>
+        <xdr:cNvPr id="18" name="십각형 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5295900" y="2508250"/>
+          <a:off x="4584700" y="2514600"/>
           <a:ext cx="241300" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="decagon">
@@ -11676,7 +13912,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="직사각형 62"/>
+        <xdr:cNvPr id="19" name="직사각형 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11720,23 +13956,47 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>등록</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6 | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>일반</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t> | </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>공지 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>| 52 | </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2">
                   <a:lumMod val="60000"/>
@@ -11744,10 +14004,10 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+            <a:t>부수 등록은 어떻게 하나요</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2">
                   <a:lumMod val="60000"/>
@@ -11755,7 +14015,107 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>모임</a:t>
+            <a:t>? |</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> admin | 2021-01-28</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="직사각형 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1041400" y="3613150"/>
+          <a:ext cx="4965700" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>ㅁ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5 | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="900" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>삭제</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> | </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
@@ -11766,10 +14126,260 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+            <a:t>*****</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>| admin | 2021-01-01</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="직사각형 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1060450" y="4387850"/>
+          <a:ext cx="4965700" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="십각형 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1035050" y="3054350"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="직사각형 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="3981450"/>
+          <a:ext cx="4965700" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>ㅁ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="900" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>일반 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2">
                   <a:lumMod val="60000"/>
@@ -11777,10 +14387,10 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>제 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
+            <a:t>FAQ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2">
                   <a:lumMod val="60000"/>
@@ -11788,379 +14398,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>11</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>회 어쩌다리그 모임 </a:t>
+            <a:t>게시판</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>| admin | 2021-01-28</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="직사각형 63"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1041400" y="3613150"/>
-          <a:ext cx="4965700" cy="298450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-            <a:t>ㅁ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>| </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-            <a:t>삭제 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>| </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>공지 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>| 51 | </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>일반</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>일반공지입니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>| admin | 2021-01-01</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="직사각형 64"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1060450" y="4387850"/>
-          <a:ext cx="4965700" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="십각형 65"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1035050" y="3054350"/>
-          <a:ext cx="241300" cy="234950"/>
-        </a:xfrm>
-        <a:prstGeom prst="decagon">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="직사각형 66"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1047750" y="3981450"/>
-          <a:ext cx="4965700" cy="298450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-            <a:t>ㅁ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>| </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-            <a:t>등록 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>| FAQ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>| </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>부수합 관련 문의드립니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>| admin | 2020-12-21</a:t>
+            <a:t>  | admin | 2020-12-21</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
         </a:p>
@@ -12183,7 +14425,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="직사각형 67"/>
+        <xdr:cNvPr id="24" name="직사각형 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12239,7 +14481,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="직사각형 77"/>
+        <xdr:cNvPr id="25" name="직사각형 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12294,7 +14536,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="십각형 78"/>
+        <xdr:cNvPr id="26" name="십각형 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12330,6 +14572,61 @@
             <a:t>5</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="직사각형 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5397500" y="2527300"/>
+          <a:ext cx="615950" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>글 활성화</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12667,21 +14964,21 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3">
         <v>44224</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12698,8 +14995,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44230</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12738,92 +15106,21 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>44230</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:H2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3">
         <v>44224</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12840,7 +15137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -12880,21 +15177,21 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3">
         <v>44224</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12911,8 +15208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12930,13 +15227,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -12951,21 +15248,92 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3">
-        <v>44224</v>
+        <v>44231</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44231</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/어쩌다리그_화면설계_관리자페이지.xlsx
+++ b/어쩌다리그_화면설계_관리자페이지.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="관리자페이지" sheetId="1" r:id="rId1"/>
     <sheet name="모임관리" sheetId="5" r:id="rId2"/>
     <sheet name="모임관리-참가자조회" sheetId="6" r:id="rId3"/>
     <sheet name="회원관리" sheetId="2" r:id="rId4"/>
-    <sheet name="게시물 조회" sheetId="4" r:id="rId5"/>
-    <sheet name="faq게시물 관리" sheetId="10" r:id="rId6"/>
+    <sheet name="게시물 관리-공지" sheetId="4" r:id="rId5"/>
+    <sheet name="게시물관리-faq" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -5339,15 +5339,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>908050</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5356,7 +5356,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="387350" y="6019800"/>
+          <a:off x="495300" y="5607050"/>
           <a:ext cx="1365250" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5396,15 +5396,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>908050</xdr:colOff>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1016000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5413,7 +5413,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1860550" y="6026150"/>
+          <a:off x="1968500" y="5613400"/>
           <a:ext cx="2044700" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5466,25 +5466,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="직사각형 37"/>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>908050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="직사각형 38"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="5607050"/>
-          <a:ext cx="3028950" cy="285750"/>
+          <a:off x="495300" y="6832600"/>
+          <a:ext cx="1365250" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5510,46 +5510,38 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>제 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>12</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>회 어쩌다리그</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+            <a:t>신청자</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="직사각형 38"/>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1098550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="직사각형 39"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="387350" y="7245350"/>
-          <a:ext cx="1365250" cy="254000"/>
+          <a:off x="1968500" y="6838950"/>
+          <a:ext cx="2019300" cy="273050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5578,35 +5570,40 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>신청자</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+            <a:t>김민선</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(rlaalstjsoo123)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>908050</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="직사각형 39"/>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="직사각형 40"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1860550" y="7251700"/>
-          <a:ext cx="2019300" cy="273050"/>
+          <a:off x="495300" y="7150100"/>
+          <a:ext cx="1365250" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5635,40 +5632,35 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>김민선</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>(rlaalstjsoo123)</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
+            <a:t>신청자 연락처</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="직사각형 40"/>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="직사각형 41"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="387350" y="7562850"/>
-          <a:ext cx="1365250" cy="419100"/>
+          <a:off x="1962150" y="7156450"/>
+          <a:ext cx="2019300" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5696,9 +5688,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>신청자 연락처</a:t>
-          </a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>010-1234-1234</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5707,24 +5700,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
+      <xdr:colOff>1016000</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>984250</xdr:colOff>
+      <xdr:colOff>1098550</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="직사각형 41"/>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="직사각형 42"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1854200" y="7569200"/>
+          <a:off x="1968500" y="7645400"/>
           <a:ext cx="2019300" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5752,10 +5745,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>010-1234-1234</a:t>
-          </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5764,26 +5753,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>908050</xdr:colOff>
+      <xdr:colOff>914400</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="직사각형 42"/>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="직사각형 43"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1860550" y="8058150"/>
-          <a:ext cx="2019300" cy="419100"/>
+          <a:off x="501650" y="7632700"/>
+          <a:ext cx="1365250" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5810,7 +5799,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>건의사항</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5819,25 +5811,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
+      <xdr:colOff>895350</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="직사각형 43"/>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="직사각형 44"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="393700" y="8045450"/>
-          <a:ext cx="1365250" cy="419100"/>
+          <a:off x="482600" y="8172450"/>
+          <a:ext cx="1365250" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5866,35 +5858,35 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>건의사항</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
+            <a:t>신청일자</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="직사각형 44"/>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="직사각형 45"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="374650" y="8585200"/>
-          <a:ext cx="1365250" cy="285750"/>
+          <a:off x="1968500" y="8159750"/>
+          <a:ext cx="2038350" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5922,36 +5914,37 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>신청일자</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2021-01-28</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>908050</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="직사각형 45"/>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="직사각형 46"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1860550" y="8572500"/>
-          <a:ext cx="2038350" cy="311150"/>
+          <a:off x="501650" y="6083300"/>
+          <a:ext cx="1365250" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5979,37 +5972,36 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>2021-01-28</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>부수 합</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="직사각형 46"/>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="직사각형 47"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="393700" y="6496050"/>
-          <a:ext cx="1365250" cy="285750"/>
+          <a:off x="1981200" y="6115050"/>
+          <a:ext cx="2025650" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6037,63 +6029,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>부수 합</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="직사각형 47"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1873250" y="6527800"/>
-          <a:ext cx="2025650" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
             <a:t>9</a:t>
           </a:r>
@@ -6109,9 +6044,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>193675</xdr:rowOff>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>212725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -6129,8 +6064,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3898900" y="6670675"/>
-          <a:ext cx="1071563" cy="1343025"/>
+          <a:off x="4006850" y="6257925"/>
+          <a:ext cx="963613" cy="1755775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6227,16 +6162,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6245,7 +6180,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3498850" y="5613400"/>
+          <a:off x="1733550" y="8616950"/>
           <a:ext cx="419100" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6284,16 +6219,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>946150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1187450</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6302,7 +6237,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3835400" y="5549900"/>
+          <a:off x="958850" y="8610600"/>
           <a:ext cx="241300" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="decagon">
@@ -6341,15 +6276,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>908050</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6358,7 +6293,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="400050" y="6845300"/>
+          <a:off x="508000" y="6432550"/>
           <a:ext cx="1352550" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6398,15 +6333,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>977900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6415,7 +6350,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="6864350"/>
+          <a:off x="1955800" y="6451600"/>
           <a:ext cx="2019300" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6448,6 +6383,120 @@
             <a:t>1234</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="직사각형 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="8604250"/>
+          <a:ext cx="419100" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>삭제</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="직사각형 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2241550" y="8616950"/>
+          <a:ext cx="419100" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>목록</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15066,8 +15115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -15137,7 +15186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -15208,8 +15257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/어쩌다리그_화면설계_관리자페이지.xlsx
+++ b/어쩌다리그_화면설계_관리자페이지.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="19428" windowHeight="6624" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="관리자페이지" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="게시물 관리-공지" sheetId="4" r:id="rId5"/>
     <sheet name="게시물관리-faq" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A7:N23"/>
 </workbook>
 </file>
 
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,6 +202,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -14727,7 +14731,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14762,7 +14766,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14977,17 +14981,17 @@
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.08203125" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.9140625" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15009,7 +15013,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -15044,21 +15048,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15080,7 +15084,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -15115,21 +15119,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15151,7 +15155,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -15186,21 +15190,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15222,7 +15226,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -15257,21 +15261,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15293,7 +15297,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -15332,17 +15336,17 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -15364,7 +15368,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>

--- a/어쩌다리그_화면설계_관리자페이지.xlsx
+++ b/어쩌다리그_화면설계_관리자페이지.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19428" windowHeight="6624" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="19420" windowHeight="6620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="관리자페이지" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="게시물관리-faq" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A7:N23"/>
 </workbook>
 </file>
 
@@ -118,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1438,16 +1437,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1187450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1456,7 +1455,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2235200" y="4654550"/>
+          <a:off x="2139950" y="4972050"/>
           <a:ext cx="2749550" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2434,7 +2433,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>7. </a:t>
+            <a:t>6. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
@@ -2442,7 +2441,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>글 표시 기준</a:t>
+            <a:t>참가신청 마감 버튼</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
             <a:solidFill>
@@ -2458,7 +2457,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>'</a:t>
+            <a:t>- bbsComplete(1</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
@@ -2466,7 +2465,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>전체</a:t>
+            <a:t>은 완료된 모임</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
@@ -2474,7 +2473,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>'</a:t>
+            <a:t>, 0</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
@@ -2482,8 +2481,51 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>를 선택하면 전체 게시물이 보임</a:t>
-          </a:r>
+            <a:t>은 진행중인 모임이었음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.. 2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>는 진행중</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>참가신청 마감된 모임으로 하자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>!)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -2492,156 +2534,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>일반</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>를 선택하면 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>bbsAvailable == 0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>인 게시물들만 보임</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>존재하는 게시물</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>진행</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>을 선택하면 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>bbsAvailable == 1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>인 게시물들만 보임</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>삭제된 게시물</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -2650,12 +2542,234 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>글 표시 기준</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>전체</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>를 선택하면 전체 게시물이 보임</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>일반</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>를 선택하면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bbsAvailable == 0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>인 게시물들만 보임</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>존재하는 게시물</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>진행</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>을 선택하면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bbsAvailable == 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>인 게시물들만 보임</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>삭제된 게시물</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -2989,6 +3103,117 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
             <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="직사각형 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5137150" y="4635500"/>
+          <a:ext cx="927100" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>참가신청마감</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="십각형 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5029200" y="4616450"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>6</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
         </a:p>
@@ -3576,13 +3801,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3591,8 +3816,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1130300" y="2806700"/>
-          <a:ext cx="4933950" cy="330200"/>
+          <a:off x="1130300" y="2825750"/>
+          <a:ext cx="4927600" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4020,16 +4245,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4038,8 +4263,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2235200" y="4654550"/>
-          <a:ext cx="2749550" cy="266700"/>
+          <a:off x="2914650" y="4991100"/>
+          <a:ext cx="1327150" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4069,61 +4294,6 @@
             <a:t>&lt; 1 2 3 4 5 &gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="직사각형 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5568950" y="2508250"/>
-          <a:ext cx="444500" cy="234950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>삭제</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4301,15 +4471,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4318,8 +4488,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="2514600"/>
-          <a:ext cx="723900" cy="234950"/>
+          <a:off x="4330700" y="4654550"/>
+          <a:ext cx="609600" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4355,15 +4525,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4373,8 +4543,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="2520950"/>
-          <a:ext cx="704850" cy="234950"/>
+          <a:off x="4997450" y="4679950"/>
+          <a:ext cx="590550" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4417,9 +4587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4428,8 +4598,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="558800"/>
-          <a:ext cx="2781300" cy="6362700"/>
+          <a:off x="6261100" y="558800"/>
+          <a:ext cx="3206750" cy="6565900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4775,6 +4945,45 @@
             <a:t>)</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>8. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>누르면 랜덤으로 예선 대진표 짜주는 페이지로 이동</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>한 조당 몇 팀</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>넣을지만 입력</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -5021,15 +5230,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5038,7 +5247,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4629150" y="2495550"/>
+          <a:off x="4876800" y="4610100"/>
           <a:ext cx="241300" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="decagon">
@@ -5187,16 +5396,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5205,7 +5414,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5422900" y="4679950"/>
+          <a:off x="5949950" y="4552950"/>
           <a:ext cx="241300" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="decagon">
@@ -6053,10 +6262,10 @@
       <xdr:rowOff>212725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>61913</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>617538</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6068,8 +6277,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4006850" y="6257925"/>
-          <a:ext cx="963613" cy="1755775"/>
+          <a:off x="4000500" y="6257925"/>
+          <a:ext cx="858838" cy="2174875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6099,8 +6308,8 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -6115,8 +6324,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4794250" y="7308850"/>
-          <a:ext cx="2895600" cy="1409700"/>
+          <a:off x="4787900" y="8147050"/>
+          <a:ext cx="2895600" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="parallelogram">
           <a:avLst/>
@@ -6501,6 +6710,117 @@
             <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
             <a:t>목록</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="직사각형 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5022850" y="2533650"/>
+          <a:ext cx="958850" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>예선 대진표 짜기</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="십각형 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5886450" y="2463800"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14731,7 +15051,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14766,7 +15086,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14981,17 +15301,17 @@
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.08203125" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15013,7 +15333,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -15048,21 +15368,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15084,7 +15404,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -15119,21 +15439,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15155,7 +15475,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -15190,21 +15510,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15226,7 +15546,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -15265,17 +15585,17 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15297,7 +15617,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -15336,17 +15656,17 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -15368,7 +15688,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>

--- a/어쩌다리그_화면설계_관리자페이지.xlsx
+++ b/어쩌다리그_화면설계_관리자페이지.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19420" windowHeight="6620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="19420" windowHeight="6620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="관리자페이지" sheetId="1" r:id="rId1"/>
@@ -7841,15 +7841,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7858,7 +7858,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2235200" y="4775200"/>
+          <a:off x="2235200" y="5035550"/>
           <a:ext cx="2749550" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7897,15 +7897,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7914,7 +7914,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5568950" y="2628900"/>
+          <a:off x="5619750" y="4724400"/>
           <a:ext cx="444500" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8126,10 +8126,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8138,8 +8138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6229350" y="863600"/>
-          <a:ext cx="2260600" cy="5314950"/>
+          <a:off x="6223000" y="863600"/>
+          <a:ext cx="3860800" cy="5543550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8374,7 +8374,10 @@
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
             <a:t>삭제 버튼</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(admin_userDelAction.jsp)</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -8399,9 +8402,59 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>에서 지워버리면 외래키로 참조한 부분에 이상 생김</a:t>
+            <a:t>에서 지워버리면 외래키로 참조한 부분에 이상 생기므로 계정 자체를 삭제하지 말고 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>userAvailable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>만 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>으로 돌리자</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>8. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>계정복구 버튼</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(admin_RestoreAction.jsp)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>선택한 회원의 계정을 복구할 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(userAvailable = 1)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8578,15 +8631,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8595,7 +8648,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5340350" y="2622550"/>
+          <a:off x="5518150" y="4705350"/>
           <a:ext cx="241300" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="decagon">
@@ -8641,8 +8694,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8652,7 +8705,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="939800" y="5397500"/>
-          <a:ext cx="4025900" cy="4387850"/>
+          <a:ext cx="4019550" cy="5619750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8807,7 +8860,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -8819,7 +8872,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1079500" y="5492750"/>
-          <a:ext cx="3028950" cy="285750"/>
+          <a:ext cx="2489200" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9202,15 +9255,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9219,8 +9272,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1073150" y="8191500"/>
-          <a:ext cx="3435350" cy="285750"/>
+          <a:off x="1035050" y="8978900"/>
+          <a:ext cx="3429000" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9288,15 +9341,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9305,8 +9358,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066800" y="8572500"/>
-          <a:ext cx="3435350" cy="292100"/>
+          <a:off x="1073150" y="9378950"/>
+          <a:ext cx="3429000" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9502,7 +9555,6 @@
         <xdr:cNvPr id="78" name="직선 화살표 연결선 77"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="77" idx="3"/>
-          <a:endCxn id="79" idx="5"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9532,146 +9584,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="평행 사변형 78"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5492750" y="7194550"/>
-          <a:ext cx="2895600" cy="2908300"/>
-        </a:xfrm>
-        <a:prstGeom prst="parallelogram">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-            <a:t>설명</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-            <a:t>페이지  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>: admin_userPopup.jsp</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t> user table</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>에 가입일자</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>최근 로그인 날짜 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>/ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>상태  필드 추가</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>부수</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>이메일</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>소개 수정 가능</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -9946,6 +9858,817 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="직사각형 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="8204200"/>
+          <a:ext cx="1358900" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>가입일자</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="직사각형 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495550" y="8229600"/>
+          <a:ext cx="2019300" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2021 - 02</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> - 12</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="직사각형 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1035050" y="8578850"/>
+          <a:ext cx="1358900" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>최근로그인</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="직사각형 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2482850" y="8604250"/>
+          <a:ext cx="2019300" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2021 - 02 - 12</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="직사각형 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1035050" y="9753600"/>
+          <a:ext cx="2813050" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>탈퇴한 사용자입니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.&gt; </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="직사각형 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3937000" y="9747250"/>
+          <a:ext cx="647700" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>계정복구</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5899150" y="7981950"/>
+          <a:ext cx="3543300" cy="3625850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>설명</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>admin_userDtl.jsp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>수정 버튼 누르면 회원정보 수정페이지로 이동</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(admin_userUpd.jsp &gt; admin_userUpdAction.jsp)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>6. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>삭제 버튼 누르면 회원정보 삭제 페이지로 이동</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(admin_userDelAction.jsp)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>7. userAvailable==0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>인 사용자는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>탈퇴한 사용자입니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>라는 문구와 함께 계정복구 버튼이 보임</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>계정복구 버튼 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>userAvailable = 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>로 돌림</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(admin_userRestoreAction.jsp)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1244600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="직사각형 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3708400" y="5505450"/>
+          <a:ext cx="419100" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>삭제</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>958850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="십각형 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3600450" y="5391150"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="십각형 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4483100" y="9677400"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="직사각형 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4864100" y="4743450"/>
+          <a:ext cx="647700" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>계정복구</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="십각형 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4692650" y="4660900"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15368,7 +16091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -15510,8 +16233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/어쩌다리그_화면설계_관리자페이지.xlsx
+++ b/어쩌다리그_화면설계_관리자페이지.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19420" windowHeight="6620" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="19420" windowHeight="6620" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="관리자페이지" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="회원관리" sheetId="2" r:id="rId4"/>
     <sheet name="게시물 관리-공지" sheetId="4" r:id="rId5"/>
     <sheet name="게시물 관리-결과" sheetId="11" r:id="rId6"/>
-    <sheet name="게시물관리-faq" sheetId="10" r:id="rId7"/>
+    <sheet name="게시물 관리-후기" sheetId="12" r:id="rId7"/>
+    <sheet name="게시물관리-faq" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>제목</t>
   </si>
@@ -99,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">admin_faq.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공지게시물 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,6 +121,22 @@
   </si>
   <si>
     <t xml:space="preserve">admin_bbsResult.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기게시물 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_bbsReview.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> what&gt;관리자페이지&gt;후기게시물 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_bbsFaq.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,13 +201,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -16309,7 +16325,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="838200"/>
-          <a:ext cx="5930900" cy="558800"/>
+          <a:ext cx="5924550" cy="558800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16365,7 +16381,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4032250" y="533400"/>
+          <a:off x="4025900" y="533400"/>
           <a:ext cx="647700" cy="260350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -16422,7 +16438,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="527050"/>
+          <a:off x="4794250" y="527050"/>
           <a:ext cx="958850" cy="260350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -16480,7 +16496,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="996950" y="1517650"/>
-          <a:ext cx="4933950" cy="285750"/>
+          <a:ext cx="4927600" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -16551,6 +16567,350 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="1847850"/>
+          <a:ext cx="939800" cy="1327150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>공지게시물</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>결과게시물</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>후기게시물</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>*FAQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -16570,7 +16930,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1111250" y="1917700"/>
-          <a:ext cx="1517650" cy="190500"/>
+          <a:ext cx="1511300" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16603,11 +16963,11 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
-            <a:t>- faq</a:t>
+            <a:t>- </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t> 조회</a:t>
+            <a:t>후기게시물 조회</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -16635,7 +16995,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1098550" y="2171700"/>
-          <a:ext cx="4845050" cy="279400"/>
+          <a:ext cx="4838700" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16688,7 +17048,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3219450" y="2241550"/>
+          <a:off x="3213100" y="2241550"/>
           <a:ext cx="2051050" cy="165100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16743,7 +17103,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2425700" y="2235200"/>
+          <a:off x="2419350" y="2235200"/>
           <a:ext cx="717550" cy="165100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16802,7 +17162,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5346700" y="2241550"/>
+          <a:off x="5340350" y="2241550"/>
           <a:ext cx="476250" cy="165100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16858,7 +17218,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="2108200" y="2197100"/>
-          <a:ext cx="241300" cy="234950"/>
+          <a:ext cx="234950" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="decagon">
           <a:avLst/>
@@ -16896,15 +17256,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16913,7 +17273,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2438400" y="1892300"/>
+          <a:off x="2565400" y="1860550"/>
           <a:ext cx="241300" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="decagon">
@@ -16957,8 +17317,8 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -16970,7 +17330,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1098550" y="2546350"/>
-          <a:ext cx="2101850" cy="215900"/>
+          <a:ext cx="1016000" cy="215900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17028,15 +17388,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17045,8 +17405,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6159500" y="622300"/>
-          <a:ext cx="2825750" cy="5137150"/>
+          <a:off x="6203950" y="539750"/>
+          <a:ext cx="3187700" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17137,7 +17497,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-            <a:t>내용</a:t>
+            <a:t>작성자</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
         </a:p>
@@ -17149,179 +17509,498 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>3.</a:t>
-          </a:r>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>사이드바</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>평소에는 숨겨져있다가 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>&gt;&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>버튼 클릭하면 펼쳐서 볼 수 있다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>삭제 버튼 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>&amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>복구버튼</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>삭제 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>선택한 게시물을 삭제할 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>. (bbsAvailable = 0)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>복구 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>선택한 게시물을 다시 살릴 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(bbsAvailabe = 1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>등록 버튼</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>결과게시물 등록 가능 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>단 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>notice</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>게시물 중에서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>bbsType='</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>모임공지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>AND </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>bbsComplete =1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>AND bbsAvailable=1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>인 애들에 대해서만 결과 등록 가능 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>참고로 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>review </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>테이블에 이미 해당 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>bbsID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>에 대한 게시물이 등록되어있으면 해당 게시물에 대해서는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>후기 등록</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>이 불가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>! </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>수정이나 삭제만 가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>! </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>review</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>테이블에 해당 게시물이 존재하지만 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>bbsAvailable=0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>인 경우</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>, '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>글 복구</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>를 해서 재사용하도록</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>! </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>새롭게 게시물 등록 안됨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>!(review_select.jsp &gt; review_write.jsp)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>6. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>리스트</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="500">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- bbs_review </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>테이블에서 모든 게시물 가져오기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>기본 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-  bbsID </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>순</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="500">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>게시물 제목</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>파란글씨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>클릭하면 해당 게시물의 내용을 확인할 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. -&gt; (review_view.jsp)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="500">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
             <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>리스트</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>- bbs_faq</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>테이블에서 모든 게시물 가져오기</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>기본 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>-  bbsID </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>순</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>게시물 제목</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>파란글씨</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>) </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>클릭하면 해당 게시물의 내용을 확인할 수 있음</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>. -&gt; (faq_view.jsp)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>4. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>삭제 버튼 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>&amp; </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>활성화버튼</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>삭제 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>선택한 게시물을 삭제할 수 있음</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>. (bbsAvailable = 0)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>활성화 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>선택한 게시물을 다시 살릴 수 있음</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>(bbsAvailabe = 1)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>5. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>등록 버튼</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>- faq</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t> 새로 등록 가능</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>(faq_write.jsp)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -17349,7 +18028,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1085850" y="2813050"/>
-          <a:ext cx="4933950" cy="330200"/>
+          <a:ext cx="4927600" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17401,15 +18080,2135 @@
             <a:t>상태 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>제목  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>작성자 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>작성일자</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="직사각형 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4768850" y="5054600"/>
+          <a:ext cx="615950" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>글 삭제</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="십각형 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4572000" y="5105400"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="직사각형 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="3238500"/>
+          <a:ext cx="4959350" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>ㅁ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>52 | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>일반</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>제 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>회 어쩌다리그 모임 결과 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>admin | 2021-01-28</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="직사각형 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1041400" y="3613150"/>
+          <a:ext cx="4959350" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>ㅁ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>51 | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="900" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>삭제</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>제</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>회 어쩌다리그 모임 결과</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> | admin | 2021-01-01</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="직사각형 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1060450" y="4387850"/>
+          <a:ext cx="4959350" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="십각형 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="736600" y="1739900"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="직사각형 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="3981450"/>
+          <a:ext cx="4959350" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>ㅁ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="900" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>일반 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>모임공지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>test</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> | admin | 2020-12-21</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="직사각형 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="5422900"/>
+          <a:ext cx="2749550" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt; 1 2 3 4 5 &gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="직사각형 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="2533650"/>
+          <a:ext cx="444500" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>등록</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="십각형 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5391150" y="2514600"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="직사각형 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5422900" y="5048250"/>
+          <a:ext cx="615950" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>글 복구</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="십각형 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1022350" y="3136900"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="838200"/>
+          <a:ext cx="5930900" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>관리자페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4032250" y="533400"/>
+          <a:ext cx="647700" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>로그아웃</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="527050"/>
+          <a:ext cx="958850" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>사용자페이지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="996950" y="1517650"/>
+          <a:ext cx="4933950" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회원관리 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> |  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>게시물 관리  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>|  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>모임 관리  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>|  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>콘텐츠 관리  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>|  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>통계관리</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1111250" y="1917700"/>
+          <a:ext cx="1517650" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>게시물관리 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>- faq</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t> 조회</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1098550" y="2171700"/>
+          <a:ext cx="4845050" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="2241550"/>
+          <a:ext cx="2051050" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="600"/>
+            <a:t>검색어 입력</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="직사각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2425700" y="2235200"/>
+          <a:ext cx="717550" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="600"/>
+            <a:t>v </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="600"/>
+            <a:t>옵션</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="직사각형 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5346700" y="2241550"/>
+          <a:ext cx="476250" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="600"/>
+            <a:t>검색</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="십각형 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2108200" y="2197100"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="십각형 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2438400" y="1892300"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="직사각형 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1098550" y="2546350"/>
+          <a:ext cx="1162050" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1"/>
+            <a:t>전체</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>일반</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0"/>
+            <a:t> | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0"/>
+            <a:t>삭제</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="직사각형 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6159500" y="622300"/>
+          <a:ext cx="2825750" cy="5137150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>현재 페이지 이름 표시</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>각 페이지 링크 걸어두기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>2.  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>검색필드</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>옵션 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>제목 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>내용</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>리스트</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- bbs_faq</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>테이블에서 모든 게시물 가져오기</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>기본 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>-  bbsID </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>순</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>게시물 제목</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>파란글씨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>클릭하면 해당 게시물의 내용을 확인할 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>. -&gt; (faq_view.jsp)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>삭제 버튼 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>&amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>복구버튼</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>삭제 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>선택한 게시물을 삭제할 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>. (bbsAvailable = 0)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>복구 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>선택한 게시물을 다시 살릴 수 있음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(bbsAvailabe = 1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>등록 버튼</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>- faq</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t> 새로 등록 가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>(faq_write.jsp)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="2813050"/>
+          <a:ext cx="4933950" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>체크박스 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> bbsID | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>상태 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>| </a:t>
           </a:r>
           <a:r>
@@ -17442,14 +20241,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17458,7 +20257,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4743450" y="2533650"/>
+          <a:off x="4737100" y="5099050"/>
           <a:ext cx="615950" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17497,14 +20296,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17513,7 +20312,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4584700" y="2514600"/>
+          <a:off x="4578350" y="5080000"/>
           <a:ext cx="241300" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="decagon">
@@ -18067,13 +20866,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18082,7 +20881,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2228850" y="5181600"/>
+          <a:off x="2222500" y="5391150"/>
           <a:ext cx="2749550" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18121,15 +20920,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18138,7 +20937,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5581650" y="5181600"/>
+          <a:off x="5556250" y="2540000"/>
           <a:ext cx="444500" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18176,15 +20975,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18193,7 +20992,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5410200" y="5162550"/>
+          <a:off x="5384800" y="2520950"/>
           <a:ext cx="241300" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="decagon">
@@ -18233,14 +21032,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18249,7 +21048,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5397500" y="2527300"/>
+          <a:off x="5391150" y="5092700"/>
           <a:ext cx="615950" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18953,21 +21752,21 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3">
         <v>44224</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19024,21 +21823,21 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3">
         <v>44230</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19095,21 +21894,21 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3">
         <v>44224</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19166,21 +21965,21 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3">
         <v>44224</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19216,13 +22015,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -19237,21 +22036,21 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>23</v>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3">
         <v>44239</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19268,7 +22067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -19287,13 +22086,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -19308,21 +22107,21 @@
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
+      <c r="B2" s="7" t="s">
+        <v>25</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3">
         <v>44239</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19339,8 +22138,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44239</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -19364,7 +22234,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -19379,21 +22249,21 @@
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3">
-        <v>44231</v>
+        <v>44239</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/어쩌다리그_화면설계_관리자페이지.xlsx
+++ b/어쩌다리그_화면설계_관리자페이지.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19420" windowHeight="6620" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="8844" windowHeight="6876" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="관리자페이지" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="게시물관리-faq" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A27:E44"/>
 </workbook>
 </file>
 
@@ -143,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7972,7 +7973,23 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
             <a:t>- </a:t>
@@ -8007,7 +8024,73 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>(admin_userPopup.jsp)</a:t>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>admin_userDtl.jsp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" u="none" strike="sngStrike" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" u="none" strike="sngStrike" baseline="0"/>
+            <a:t>상태가 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" u="none" strike="sngStrike" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" u="none" strike="sngStrike" baseline="0"/>
+            <a:t>삭제</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" u="none" strike="sngStrike" baseline="0"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" u="none" strike="sngStrike" baseline="0"/>
+            <a:t>인 회원의 정보는 열람할 수 없음</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" u="none" strike="sngStrike" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>삭제 버튼</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(admin_userDelAction.jsp)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8018,56 +8101,6 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>상태가 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>삭제</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>인 회원의 정보는 열람할 수 없음</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>4. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>삭제 버튼</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>(admin_userDelAction.jsp)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
             <a:t>선택한 회원의 기록을 삭제할 수 있음</a:t>
           </a:r>
           <a:r>
@@ -8119,7 +8152,23 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>(admin_RestoreAction.jsp)</a:t>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>admin_userDelAction</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.jsp)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10001,12 +10050,16 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>삭제 버튼 누르면 회원정보 삭제 페이지로 이동</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+            <a:t>삭제 버튼 누르면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>userAvailbale=0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>으로 돌림</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
             <a:t>(admin_userDelAction.jsp)</a:t>
@@ -10063,7 +10116,23 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>(admin_userRestoreAction.jsp)</a:t>
+            <a:t>(admin_user</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rDelActio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.jsp)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21466,7 +21535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21501,7 +21570,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21716,17 +21785,17 @@
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.08203125" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.9140625" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21748,7 +21817,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -21787,17 +21856,17 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21819,7 +21888,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -21854,21 +21923,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21890,7 +21959,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -21925,21 +21994,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21961,7 +22030,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -21996,21 +22065,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22032,7 +22101,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -22071,17 +22140,17 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -22103,7 +22172,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -22142,17 +22211,17 @@
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -22174,7 +22243,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -22209,21 +22278,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -22245,7 +22314,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>

--- a/어쩌다리그_화면설계_관리자페이지.xlsx
+++ b/어쩌다리그_화면설계_관리자페이지.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="8844" windowHeight="6876" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="8840" windowHeight="6880" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="관리자페이지" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="게시물관리-faq" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A27:E44"/>
 </workbook>
 </file>
 
@@ -144,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7018,8 +7017,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1155700</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -7031,7 +7030,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1136650" y="2667000"/>
-          <a:ext cx="2101850" cy="215900"/>
+          <a:ext cx="971550" cy="215900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7058,31 +7057,27 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1"/>
-            <a:t>이름순 </a:t>
+            <a:t>전체 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1"/>
+            <a:t>|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" baseline="0"/>
+            <a:t>활동 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1" baseline="0"/>
             <a:t>| </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1"/>
-            <a:t>아이디순 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1"/>
-            <a:t>| </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1"/>
-            <a:t>가입일자순 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1"/>
-            <a:t>| </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1"/>
-            <a:t>랭킹순</a:t>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1" baseline="0"/>
+            <a:t>탈퇴</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
         </a:p>
@@ -8045,37 +8040,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" u="none" strike="sngStrike" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" u="none" strike="sngStrike" baseline="0"/>
-            <a:t>상태가 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" u="none" strike="sngStrike" baseline="0"/>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" u="none" strike="sngStrike" baseline="0"/>
-            <a:t>삭제</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" u="none" strike="sngStrike" baseline="0"/>
-            <a:t>'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" u="none" strike="sngStrike" baseline="0"/>
-            <a:t>인 회원의 정보는 열람할 수 없음</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" u="none" strike="sngStrike" baseline="0"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
@@ -8417,15 +8381,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
+      <xdr:colOff>895350</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8434,7 +8398,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="939800" y="5397500"/>
+          <a:off x="895350" y="5410200"/>
           <a:ext cx="4019550" cy="5619750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8589,8 +8553,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -8602,7 +8566,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1079500" y="5492750"/>
-          <a:ext cx="2489200" cy="285750"/>
+          <a:ext cx="3530600" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8976,177 +8940,6 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
             <a:t>내 소개</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="직사각형 73"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1035050" y="8978900"/>
-          <a:ext cx="3429000" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>랭킹 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>| </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>우승 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>| </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>준우승 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>|</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t> 3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>위</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="직사각형 74"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1073150" y="9378950"/>
-          <a:ext cx="3429000" cy="292100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>위 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>| 0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>회</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t> | 0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>회</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t> | 1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>회</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9318,119 +9111,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1308100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="직사각형 79"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4197350" y="5499100"/>
-          <a:ext cx="419100" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>수정</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="십각형 80"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4533900" y="5435600"/>
-          <a:ext cx="241300" cy="234950"/>
-        </a:xfrm>
-        <a:prstGeom prst="decagon">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
-            <a:t>5</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>30</xdr:row>
@@ -9827,25 +9507,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>946150</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="직사각형 61"/>
+      <xdr:colOff>920750</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="직사각형 84"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1035050" y="9753600"/>
-          <a:ext cx="2813050" cy="292100"/>
+          <a:off x="1898650" y="10483850"/>
+          <a:ext cx="1905000" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9873,45 +9553,52 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>탈퇴한 사용자입니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>.&gt; </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="직사각형 84"/>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>목록 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>수정 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>계정삭제</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3937000" y="9747250"/>
-          <a:ext cx="647700" cy="285750"/>
+          <a:off x="5899150" y="7981950"/>
+          <a:ext cx="3543300" cy="3625850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9937,38 +9624,196 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>설명</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>admin_userDtl.jsp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>7. userAvailable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> == 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>인 사용자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>활동중인 사용자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>는 목록</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>수정</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>계정삭제 버튼이 보이고</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>, userAvailable==0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>인 사용자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>탈퇴한 사용자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>는 목록 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>계정복구 버튼만 보이게 한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>!</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="십각형 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3689350" y="10407650"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>계정복구</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>36</xdr:row>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1"/>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="직사각형 89"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5899150" y="7981950"/>
-          <a:ext cx="3543300" cy="3625850"/>
+          <a:off x="4864100" y="4743450"/>
+          <a:ext cx="647700" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9994,173 +9839,94 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>설명</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>admin_userDtl.jsp</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>5.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>수정 버튼 누르면 회원정보 수정페이지로 이동</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>(admin_userUpd.jsp &gt; admin_userUpdAction.jsp)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>6. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>삭제 버튼 누르면 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>userAvailbale=0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>으로 돌림</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>(admin_userDelAction.jsp)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>7. userAvailable==0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>인 사용자는 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>탈퇴한 사용자입니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>라는 문구와 함께 계정복구 버튼이 보임</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>계정복구 버튼 누르면 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>userAvailable = 1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>로 돌림</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>(admin_user</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>rDelActio</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>.jsp)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1244600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="직사각형 86"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>계정복구</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="십각형 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4692650" y="4660900"/>
+          <a:ext cx="241300" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="decagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="직사각형 78"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3708400" y="5505450"/>
-          <a:ext cx="419100" cy="285750"/>
+          <a:off x="1041400" y="8940800"/>
+          <a:ext cx="1358900" cy="273050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10186,150 +9952,38 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>삭제</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>717550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>958850</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="십각형 87"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3600450" y="5391150"/>
-          <a:ext cx="241300" cy="234950"/>
-        </a:xfrm>
-        <a:prstGeom prst="decagon">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
-            <a:t>6</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>랭킹</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="십각형 88"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4483100" y="9677400"/>
-          <a:ext cx="241300" cy="234950"/>
-        </a:xfrm>
-        <a:prstGeom prst="decagon">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="직사각형 89"/>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="직사각형 85"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4864100" y="4743450"/>
-          <a:ext cx="647700" cy="254000"/>
+          <a:off x="2489200" y="8966200"/>
+          <a:ext cx="2019300" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10355,67 +10009,386 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
-            <a:t>계정복구</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>위</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="직사각형 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1035050" y="9277350"/>
+          <a:ext cx="1358900" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>위</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="직사각형 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2482850" y="9302750"/>
+          <a:ext cx="2019300" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="직사각형 93"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="9632950"/>
+          <a:ext cx="1358900" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>위</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="직사각형 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="9658350"/>
+          <a:ext cx="2019300" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="직사각형 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1022350" y="10007600"/>
+          <a:ext cx="1358900" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>위</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="십각형 90"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4692650" y="4660900"/>
-          <a:ext cx="241300" cy="234950"/>
-        </a:xfrm>
-        <a:prstGeom prst="decagon">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
-            <a:t>8</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="직사각형 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2470150" y="10033000"/>
+          <a:ext cx="2019300" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>회</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -21535,7 +21508,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21570,7 +21543,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21785,17 +21758,17 @@
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.08203125" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21817,7 +21790,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -21856,17 +21829,17 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21888,7 +21861,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -21927,17 +21900,17 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21959,7 +21932,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -21994,21 +21967,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22030,7 +22003,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -22069,17 +22042,17 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22101,7 +22074,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -22140,17 +22113,17 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -22172,7 +22145,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -22211,17 +22184,17 @@
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -22243,7 +22216,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -22282,17 +22255,17 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -22314,7 +22287,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
